--- a/data/pca/factorExposure/factorExposure_2016-02-04.xlsx
+++ b/data/pca/factorExposure/factorExposure_2016-02-04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,15 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +714,88 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>-0.01271910289590931</v>
+        <v>-0.01684880834987815</v>
       </c>
       <c r="C2">
-        <v>-0.04677082586859037</v>
+        <v>0.04019442036150758</v>
       </c>
       <c r="D2">
-        <v>0.0842484770406572</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1005671662740909</v>
+      </c>
+      <c r="E2">
+        <v>0.1155547506012204</v>
+      </c>
+      <c r="F2">
+        <v>0.01280200242184274</v>
+      </c>
+      <c r="G2">
+        <v>0.03521592429409665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>-0.0256172689509118</v>
+        <v>-0.0158537269524731</v>
       </c>
       <c r="C3">
-        <v>-0.08931183380378482</v>
+        <v>0.04330353496890341</v>
       </c>
       <c r="D3">
-        <v>0.0987538183235894</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.07086725820448052</v>
+      </c>
+      <c r="E3">
+        <v>0.1065863389585059</v>
+      </c>
+      <c r="F3">
+        <v>-0.05387399906829242</v>
+      </c>
+      <c r="G3">
+        <v>0.0857763308706375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>-0.06287068493210375</v>
+        <v>-0.06298033546535743</v>
       </c>
       <c r="C4">
-        <v>-0.0672529437526435</v>
+        <v>0.06720713237729795</v>
       </c>
       <c r="D4">
-        <v>0.0917071948041613</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1150233583420695</v>
+      </c>
+      <c r="E4">
+        <v>0.08482723236463235</v>
+      </c>
+      <c r="F4">
+        <v>-0.03134088856664283</v>
+      </c>
+      <c r="G4">
+        <v>-0.03351290827190813</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +806,272 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>-0.0440444147023327</v>
+        <v>-0.04095185442270491</v>
       </c>
       <c r="C6">
-        <v>-0.03986955757929089</v>
+        <v>0.02872394507483434</v>
       </c>
       <c r="D6">
-        <v>0.08385617405294316</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1068663107591398</v>
+      </c>
+      <c r="E6">
+        <v>0.07391256278445389</v>
+      </c>
+      <c r="F6">
+        <v>-0.01949692004214995</v>
+      </c>
+      <c r="G6">
+        <v>0.002184849582395959</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>-0.02956705912797267</v>
+        <v>-0.02213598451970386</v>
       </c>
       <c r="C7">
-        <v>-0.03626384620109083</v>
+        <v>0.03704238457968938</v>
       </c>
       <c r="D7">
-        <v>0.05578953550592228</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.07742804127728253</v>
+      </c>
+      <c r="E7">
+        <v>0.0664524591937059</v>
+      </c>
+      <c r="F7">
+        <v>-0.02335206924768468</v>
+      </c>
+      <c r="G7">
+        <v>-0.05561409943871427</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.007773538150688462</v>
+        <v>-0.006928024061207441</v>
       </c>
       <c r="C8">
-        <v>-0.0456114692295406</v>
+        <v>0.03883351445973435</v>
       </c>
       <c r="D8">
-        <v>0.05685092467382383</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.06883018615558154</v>
+      </c>
+      <c r="E8">
+        <v>0.05185420586570774</v>
+      </c>
+      <c r="F8">
+        <v>-0.01671327805031452</v>
+      </c>
+      <c r="G8">
+        <v>0.008005284561938856</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>-0.04380631377428527</v>
+        <v>-0.04557299378989583</v>
       </c>
       <c r="C9">
-        <v>-0.05054627313267974</v>
+        <v>0.05605020573307665</v>
       </c>
       <c r="D9">
-        <v>0.07703465757175229</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.09879087044898577</v>
+      </c>
+      <c r="E9">
+        <v>0.06571264831383394</v>
+      </c>
+      <c r="F9">
+        <v>-0.009333813837055734</v>
+      </c>
+      <c r="G9">
+        <v>-0.03767173034133011</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>-0.08791390040139346</v>
+        <v>-0.1134745336870572</v>
       </c>
       <c r="C10">
-        <v>0.1794052661576978</v>
+        <v>-0.1934758009317411</v>
       </c>
       <c r="D10">
-        <v>-0.005077192413858248</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.01439874357969024</v>
+      </c>
+      <c r="E10">
+        <v>0.05417028820216555</v>
+      </c>
+      <c r="F10">
+        <v>-0.0152203842718258</v>
+      </c>
+      <c r="G10">
+        <v>-0.02916412445856321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>-0.04121968175802591</v>
+        <v>-0.03469489485049164</v>
       </c>
       <c r="C11">
-        <v>-0.05063112603494362</v>
+        <v>0.04648542963904584</v>
       </c>
       <c r="D11">
-        <v>0.04586599145058625</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05214341490685834</v>
+      </c>
+      <c r="E11">
+        <v>0.0288384370075743</v>
+      </c>
+      <c r="F11">
+        <v>-0.008355788205452821</v>
+      </c>
+      <c r="G11">
+        <v>-0.04208772430229236</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>-0.04496875231707236</v>
+        <v>-0.03740825001688588</v>
       </c>
       <c r="C12">
-        <v>-0.04859551028459187</v>
+        <v>0.04618663588636997</v>
       </c>
       <c r="D12">
-        <v>0.03118516827815893</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04637888856461032</v>
+      </c>
+      <c r="E12">
+        <v>0.04076589815632398</v>
+      </c>
+      <c r="F12">
+        <v>-0.002304249242534548</v>
+      </c>
+      <c r="G12">
+        <v>-0.03835572225724646</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>-0.01817783424033107</v>
+        <v>-0.0187970087566946</v>
       </c>
       <c r="C13">
-        <v>-0.0475975310036606</v>
+        <v>0.0395967590160882</v>
       </c>
       <c r="D13">
-        <v>0.06249379120517225</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.102845612240121</v>
+      </c>
+      <c r="E13">
+        <v>0.1131959881028486</v>
+      </c>
+      <c r="F13">
+        <v>-0.03185935899324146</v>
+      </c>
+      <c r="G13">
+        <v>-0.04616433602949858</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>-0.01450090786103312</v>
+        <v>-0.008481132538892633</v>
       </c>
       <c r="C14">
-        <v>-0.03205139397321848</v>
+        <v>0.02809470191913304</v>
       </c>
       <c r="D14">
-        <v>0.03943193016285363</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.06370398089845079</v>
+      </c>
+      <c r="E14">
+        <v>0.07318452564826072</v>
+      </c>
+      <c r="F14">
+        <v>0.004377720487395643</v>
+      </c>
+      <c r="G14">
+        <v>-0.03792869284427181</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>-0.0006310430023046694</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>0.006437606667827596</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.01802552852812471</v>
+      </c>
+      <c r="E15">
+        <v>0.008622584858296088</v>
+      </c>
+      <c r="F15">
+        <v>0.001906082873417286</v>
+      </c>
+      <c r="G15">
+        <v>0.002090542908320247</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>-0.04088462828234186</v>
+        <v>-0.03442019463079424</v>
       </c>
       <c r="C16">
-        <v>-0.05124395281150763</v>
+        <v>0.04649793185641329</v>
       </c>
       <c r="D16">
-        <v>0.03866192671463289</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.05232514168829134</v>
+      </c>
+      <c r="E16">
+        <v>0.04279209107143799</v>
+      </c>
+      <c r="F16">
+        <v>0.008971007969193562</v>
+      </c>
+      <c r="G16">
+        <v>-0.03291207155663439</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1082,19 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1105,203 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>-0.01826067901071164</v>
+        <v>-0.01356646752408212</v>
       </c>
       <c r="C19">
-        <v>-0.04898719572664857</v>
+        <v>0.03548968812919408</v>
       </c>
       <c r="D19">
-        <v>0.121878599167471</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.115893788559877</v>
+      </c>
+      <c r="E19">
+        <v>0.1116645624253583</v>
+      </c>
+      <c r="F19">
+        <v>0.02102019998062899</v>
+      </c>
+      <c r="G19">
+        <v>-0.003629131914195883</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>-0.02084114776113172</v>
+        <v>-0.0164415301616503</v>
       </c>
       <c r="C20">
-        <v>-0.04655399310728821</v>
+        <v>0.03965848067236064</v>
       </c>
       <c r="D20">
-        <v>0.05352534858545761</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.07427091259003861</v>
+      </c>
+      <c r="E20">
+        <v>0.08453558794886075</v>
+      </c>
+      <c r="F20">
+        <v>-0.003567537714460073</v>
+      </c>
+      <c r="G20">
+        <v>-0.02266626653003772</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>-0.01690630859308045</v>
+        <v>-0.01485833488473609</v>
       </c>
       <c r="C21">
-        <v>-0.04895039390445221</v>
+        <v>0.03939476749787343</v>
       </c>
       <c r="D21">
-        <v>0.06502358144967053</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1008956381027961</v>
+      </c>
+      <c r="E21">
+        <v>0.1393444128987424</v>
+      </c>
+      <c r="F21">
+        <v>0.006293203265039018</v>
+      </c>
+      <c r="G21">
+        <v>-0.07031898487766904</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B22">
-        <v>0.001149758969151219</v>
+        <v>-0.004993541885123916</v>
       </c>
       <c r="C22">
-        <v>-0.0124716563329271</v>
+        <v>0.03192190681823585</v>
       </c>
       <c r="D22">
-        <v>0.04133145438899662</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.09493868361832061</v>
+      </c>
+      <c r="E22">
+        <v>0.05515966896266584</v>
+      </c>
+      <c r="F22">
+        <v>-0.0680053379436947</v>
+      </c>
+      <c r="G22">
+        <v>0.05446813756961975</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B23">
-        <v>0.001163233129214292</v>
+        <v>-0.005121779096273367</v>
       </c>
       <c r="C23">
-        <v>-0.01242492012600473</v>
+        <v>0.03201187070889181</v>
       </c>
       <c r="D23">
-        <v>0.04110818818224059</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.09426156566523662</v>
+      </c>
+      <c r="E23">
+        <v>0.05547333298507075</v>
+      </c>
+      <c r="F23">
+        <v>-0.06811410656677434</v>
+      </c>
+      <c r="G23">
+        <v>0.05368350669467637</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>-0.03795917156311088</v>
+        <v>-0.03576955725349219</v>
       </c>
       <c r="C24">
-        <v>-0.05181440521644683</v>
+        <v>0.05458502254108643</v>
       </c>
       <c r="D24">
-        <v>0.04445856874596513</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.05568992407147139</v>
+      </c>
+      <c r="E24">
+        <v>0.04487176303729143</v>
+      </c>
+      <c r="F24">
+        <v>0.005285529854716467</v>
+      </c>
+      <c r="G24">
+        <v>-0.04957190621772159</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>-0.04761382477348584</v>
+        <v>-0.04160115423858978</v>
       </c>
       <c r="C25">
-        <v>-0.05761418879106126</v>
+        <v>0.05448130796930244</v>
       </c>
       <c r="D25">
-        <v>0.04308385471212332</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05144685039931675</v>
+      </c>
+      <c r="E25">
+        <v>0.03895453898472709</v>
+      </c>
+      <c r="F25">
+        <v>-0.01099973856591885</v>
+      </c>
+      <c r="G25">
+        <v>-0.05028694660090958</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>-0.02336473253121708</v>
+        <v>-0.01971421836395512</v>
       </c>
       <c r="C26">
-        <v>-0.01583638714071918</v>
+        <v>0.01759324491993994</v>
       </c>
       <c r="D26">
-        <v>0.03599704204550041</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.055171944431233</v>
+      </c>
+      <c r="E26">
+        <v>0.05213814057657865</v>
+      </c>
+      <c r="F26">
+        <v>0.005167719095472581</v>
+      </c>
+      <c r="G26">
+        <v>-0.01245089861996821</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1312,226 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>-0.1162324922505945</v>
+        <v>-0.1583823185536728</v>
       </c>
       <c r="C28">
-        <v>0.2622754325341314</v>
+        <v>-0.2587325798352356</v>
       </c>
       <c r="D28">
-        <v>-0.05492978179280401</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.03682648514725696</v>
+      </c>
+      <c r="E28">
+        <v>0.08570932838470219</v>
+      </c>
+      <c r="F28">
+        <v>-0.01527448984010524</v>
+      </c>
+      <c r="G28">
+        <v>-0.07419361418636955</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>-0.01019270511143439</v>
+        <v>-0.0084121020558804</v>
       </c>
       <c r="C29">
-        <v>-0.0288468820467642</v>
+        <v>0.02553854878398332</v>
       </c>
       <c r="D29">
-        <v>0.02737684401485842</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.05771446940682216</v>
+      </c>
+      <c r="E29">
+        <v>0.0720408710161517</v>
+      </c>
+      <c r="F29">
+        <v>-0.008692520204192112</v>
+      </c>
+      <c r="G29">
+        <v>-0.04628936368098181</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>-0.03940315513236136</v>
+        <v>-0.04098971949184625</v>
       </c>
       <c r="C30">
-        <v>-0.03635287711522849</v>
+        <v>0.0524290724358997</v>
       </c>
       <c r="D30">
-        <v>0.1237978076972603</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1539023439167365</v>
+      </c>
+      <c r="E30">
+        <v>0.07878072620547751</v>
+      </c>
+      <c r="F30">
+        <v>0.005359124375764057</v>
+      </c>
+      <c r="G30">
+        <v>0.01827389054063517</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>-0.06808695997073116</v>
+        <v>-0.06298571800213013</v>
       </c>
       <c r="C31">
-        <v>-0.06470786111681491</v>
+        <v>0.07204087291042899</v>
       </c>
       <c r="D31">
-        <v>0.0212592961895314</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03584094875422635</v>
+      </c>
+      <c r="E31">
+        <v>0.06371152684655228</v>
+      </c>
+      <c r="F31">
+        <v>-0.04494057976898497</v>
+      </c>
+      <c r="G31">
+        <v>-0.03014418221757366</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>0.0004721046057833588</v>
+        <v>-0.008211820208244198</v>
       </c>
       <c r="C32">
-        <v>-0.01333412593288319</v>
+        <v>0.02139165137730637</v>
       </c>
       <c r="D32">
-        <v>0.03897017034506115</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.06694245493708684</v>
+      </c>
+      <c r="E32">
+        <v>0.1115043424793413</v>
+      </c>
+      <c r="F32">
+        <v>-0.0007293630739682288</v>
+      </c>
+      <c r="G32">
+        <v>-0.06604368120681486</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>-0.03210752361688821</v>
+        <v>-0.0269975651635254</v>
       </c>
       <c r="C33">
-        <v>-0.04646078360667145</v>
+        <v>0.04586223476352293</v>
       </c>
       <c r="D33">
-        <v>0.0928397229103561</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1119687294095425</v>
+      </c>
+      <c r="E33">
+        <v>0.08802927187397884</v>
+      </c>
+      <c r="F33">
+        <v>-0.02071371706582934</v>
+      </c>
+      <c r="G33">
+        <v>-0.04253680173040464</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.04274774568331764</v>
+        <v>-0.03732675432131522</v>
       </c>
       <c r="C34">
-        <v>-0.060969961361737</v>
+        <v>0.06133246701585877</v>
       </c>
       <c r="D34">
-        <v>0.05663159449488089</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05775168223926987</v>
+      </c>
+      <c r="E34">
+        <v>0.02054840366088894</v>
+      </c>
+      <c r="F34">
+        <v>0.002068843665897439</v>
+      </c>
+      <c r="G34">
+        <v>-0.05516525419412279</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>-0.0002432560241131883</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>0.0001487057328514263</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.001463032873400891</v>
+      </c>
+      <c r="E35">
+        <v>0.0002912765189264329</v>
+      </c>
+      <c r="F35">
+        <v>0.0003376819443983259</v>
+      </c>
+      <c r="G35">
+        <v>-0.0003883414007787331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>-0.02391999093107617</v>
+        <v>-0.01941995179888414</v>
       </c>
       <c r="C36">
-        <v>-0.02151368770284535</v>
+        <v>0.01714162109282936</v>
       </c>
       <c r="D36">
-        <v>0.03709396940218553</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.06103007559055543</v>
+      </c>
+      <c r="E36">
+        <v>0.06461166863177198</v>
+      </c>
+      <c r="F36">
+        <v>-0.003344404207339698</v>
+      </c>
+      <c r="G36">
+        <v>-0.03250692172168991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1542,111 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.03481304200038664</v>
+        <v>-0.02559979195878757</v>
       </c>
       <c r="C38">
-        <v>-0.03695304417714555</v>
+        <v>0.02588421882407043</v>
       </c>
       <c r="D38">
-        <v>0.02168825172156177</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.04908761156812273</v>
+      </c>
+      <c r="E38">
+        <v>0.05086679158317485</v>
+      </c>
+      <c r="F38">
+        <v>-0.004283017742362494</v>
+      </c>
+      <c r="G38">
+        <v>0.01367828742597354</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>-0.04741353483625756</v>
+        <v>-0.04190956590780309</v>
       </c>
       <c r="C39">
-        <v>-0.05947440492323657</v>
+        <v>0.06209423888033665</v>
       </c>
       <c r="D39">
-        <v>0.06414085204924359</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.08813055515362334</v>
+      </c>
+      <c r="E39">
+        <v>0.04541025039652775</v>
+      </c>
+      <c r="F39">
+        <v>0.0234194335346177</v>
+      </c>
+      <c r="G39">
+        <v>-0.03582725451232051</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>-0.01011751560198055</v>
+        <v>-0.01388652189322975</v>
       </c>
       <c r="C40">
-        <v>-0.05670408719410092</v>
+        <v>0.0407960357278469</v>
       </c>
       <c r="D40">
-        <v>0.04771284944240742</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.07013190719761088</v>
+      </c>
+      <c r="E40">
+        <v>0.1070800210486844</v>
+      </c>
+      <c r="F40">
+        <v>-0.0464199760789583</v>
+      </c>
+      <c r="G40">
+        <v>-0.0242066849047346</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>-0.02742221091999682</v>
+        <v>-0.02230794647807197</v>
       </c>
       <c r="C41">
-        <v>-0.01339634063569296</v>
+        <v>0.01080129570119928</v>
       </c>
       <c r="D41">
-        <v>0.03190666304690404</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.04097387663448655</v>
+      </c>
+      <c r="E41">
+        <v>0.07428065902704652</v>
+      </c>
+      <c r="F41">
+        <v>-0.006761361560222401</v>
+      </c>
+      <c r="G41">
+        <v>-0.02155384173341962</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1657,65 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>-0.04242504787681622</v>
+        <v>-0.02868304861982891</v>
       </c>
       <c r="C43">
-        <v>-0.03279370319799424</v>
+        <v>0.02317090180356861</v>
       </c>
       <c r="D43">
-        <v>0.06457373859322142</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.07282821002928683</v>
+      </c>
+      <c r="E43">
+        <v>0.07634986206795326</v>
+      </c>
+      <c r="F43">
+        <v>-0.01659175331470129</v>
+      </c>
+      <c r="G43">
+        <v>-0.03435005966487952</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>-0.0150902094454522</v>
+        <v>-0.01792893440081573</v>
       </c>
       <c r="C44">
-        <v>-0.06063521623220063</v>
+        <v>0.04427291783863738</v>
       </c>
       <c r="D44">
-        <v>0.03808469876835226</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06971255807134455</v>
+      </c>
+      <c r="E44">
+        <v>0.09622425193707386</v>
+      </c>
+      <c r="F44">
+        <v>0.008338291946805803</v>
+      </c>
+      <c r="G44">
+        <v>-0.03429394163683887</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1726,88 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>-0.01771964568966708</v>
+        <v>-0.01571900075345781</v>
       </c>
       <c r="C46">
-        <v>-0.03234200304208511</v>
+        <v>0.0317713276148698</v>
       </c>
       <c r="D46">
-        <v>0.02964258853440427</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.05616805257560361</v>
+      </c>
+      <c r="E46">
+        <v>0.07771040474398087</v>
+      </c>
+      <c r="F46">
+        <v>0.008971264693123423</v>
+      </c>
+      <c r="G46">
+        <v>-0.06311761782065997</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>-0.09362373651793707</v>
+        <v>-0.09316838856302498</v>
       </c>
       <c r="C47">
-        <v>-0.08664849948405519</v>
+        <v>0.08975163320471438</v>
       </c>
       <c r="D47">
-        <v>-0.001340578901072262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01274137961927879</v>
+      </c>
+      <c r="E47">
+        <v>0.05679804004898645</v>
+      </c>
+      <c r="F47">
+        <v>-0.0314936706079098</v>
+      </c>
+      <c r="G47">
+        <v>-0.06003956987693717</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>-0.02788833219051923</v>
+        <v>-0.02221078042965192</v>
       </c>
       <c r="C48">
-        <v>-0.02433035264658837</v>
+        <v>0.02203724823835302</v>
       </c>
       <c r="D48">
-        <v>0.02836157807846862</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05586737586350039</v>
+      </c>
+      <c r="E48">
+        <v>0.076910525573196</v>
+      </c>
+      <c r="F48">
+        <v>0.00565771438850013</v>
+      </c>
+      <c r="G48">
+        <v>-0.03846976763774024</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1818,65 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>-0.08565760488561283</v>
+        <v>-0.07287057672592397</v>
       </c>
       <c r="C50">
-        <v>-0.1019732246590971</v>
+        <v>0.08065383704423618</v>
       </c>
       <c r="D50">
-        <v>0.01101480059869574</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.03739533603150257</v>
+      </c>
+      <c r="E50">
+        <v>0.07664463215639823</v>
+      </c>
+      <c r="F50">
+        <v>-0.04940685290692429</v>
+      </c>
+      <c r="G50">
+        <v>-0.01485712848960332</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>-0.01585204402251988</v>
+        <v>-0.01303234344865517</v>
       </c>
       <c r="C51">
-        <v>-0.03557962876110568</v>
+        <v>0.02255913632119096</v>
       </c>
       <c r="D51">
-        <v>0.08072206277861418</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08447229840584967</v>
+      </c>
+      <c r="E51">
+        <v>0.05603665043302431</v>
+      </c>
+      <c r="F51">
+        <v>0.00428287509283861</v>
+      </c>
+      <c r="G51">
+        <v>-0.01653579051640135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +1887,111 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>-0.08058316300132169</v>
+        <v>-0.09595753180504608</v>
       </c>
       <c r="C53">
-        <v>-0.09569444943491645</v>
+        <v>0.09812213702041572</v>
       </c>
       <c r="D53">
-        <v>-0.02651083542822174</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>0.02572074967191116</v>
+      </c>
+      <c r="E53">
+        <v>0.09432254701331548</v>
+      </c>
+      <c r="F53">
+        <v>-0.02891430768923281</v>
+      </c>
+      <c r="G53">
+        <v>-0.07584177929743324</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.04195557256879929</v>
+        <v>-0.03230380292581322</v>
       </c>
       <c r="C54">
-        <v>-0.03982394199918236</v>
+        <v>0.03545872586594587</v>
       </c>
       <c r="D54">
-        <v>0.05013456612188057</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.07212394319964191</v>
+      </c>
+      <c r="E54">
+        <v>0.07397587543019953</v>
+      </c>
+      <c r="F54">
+        <v>0.008301212011295269</v>
+      </c>
+      <c r="G54">
+        <v>-0.04016926645586272</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>-0.08666621749513873</v>
+        <v>-0.09354104913145093</v>
       </c>
       <c r="C55">
-        <v>-0.07381140076295037</v>
+        <v>0.08005790319541017</v>
       </c>
       <c r="D55">
-        <v>-0.02661839161317123</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.02577095012371438</v>
+      </c>
+      <c r="E55">
+        <v>0.05411175932942328</v>
+      </c>
+      <c r="F55">
+        <v>-0.03445253430356174</v>
+      </c>
+      <c r="G55">
+        <v>-0.03170388375800241</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>-0.1449956249691095</v>
+        <v>-0.1498525894958234</v>
       </c>
       <c r="C56">
-        <v>-0.1029784868680368</v>
+        <v>0.1148787808021662</v>
       </c>
       <c r="D56">
-        <v>-0.03074952281221839</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0342804922763418</v>
+      </c>
+      <c r="E56">
+        <v>0.04764242104724836</v>
+      </c>
+      <c r="F56">
+        <v>-0.02798253957915562</v>
+      </c>
+      <c r="G56">
+        <v>-0.04322564315642478</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2002,111 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>-0.0463782269405856</v>
+        <v>-0.03766347670306098</v>
       </c>
       <c r="C58">
-        <v>0.01780793369523414</v>
+        <v>0.007960444981937456</v>
       </c>
       <c r="D58">
-        <v>0.3303379100700272</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3363600509057521</v>
+      </c>
+      <c r="E58">
+        <v>0.2745542575440545</v>
+      </c>
+      <c r="F58">
+        <v>-0.1164624059461844</v>
+      </c>
+      <c r="G58">
+        <v>0.5111386950750262</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>-0.1384001843386083</v>
+        <v>-0.1538955261773465</v>
       </c>
       <c r="C59">
-        <v>0.1996704443023623</v>
+        <v>-0.1864653698538996</v>
       </c>
       <c r="D59">
-        <v>0.01431314775572852</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.03297825815269313</v>
+      </c>
+      <c r="E59">
+        <v>0.03059658110630267</v>
+      </c>
+      <c r="F59">
+        <v>0.03159859857330682</v>
+      </c>
+      <c r="G59">
+        <v>0.01710784512408403</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>-0.2579803635653194</v>
+        <v>-0.2394797547627529</v>
       </c>
       <c r="C60">
-        <v>-0.06899358395551793</v>
+        <v>0.07801965308768719</v>
       </c>
       <c r="D60">
-        <v>0.2068659645073504</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1871343492277389</v>
+      </c>
+      <c r="E60">
+        <v>-0.3000990695616008</v>
+      </c>
+      <c r="F60">
+        <v>-0.09161084796836566</v>
+      </c>
+      <c r="G60">
+        <v>0.01527804169131128</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>-0.04911049868296336</v>
+        <v>-0.04404513550987071</v>
       </c>
       <c r="C61">
-        <v>-0.05518170401478407</v>
+        <v>0.05539298103385581</v>
       </c>
       <c r="D61">
-        <v>0.06666234882685497</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.07575511177272179</v>
+      </c>
+      <c r="E61">
+        <v>0.04797548205168056</v>
+      </c>
+      <c r="F61">
+        <v>0.003902737088725746</v>
+      </c>
+      <c r="G61">
+        <v>-0.04894495705097758</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2117,180 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>-0.01703591189322128</v>
+        <v>-0.01686624926226296</v>
       </c>
       <c r="C63">
-        <v>-0.03023144711424928</v>
+        <v>0.02910351547241482</v>
       </c>
       <c r="D63">
-        <v>0.01520903599844625</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.04887787507483929</v>
+      </c>
+      <c r="E63">
+        <v>0.07351180335057253</v>
+      </c>
+      <c r="F63">
+        <v>-0.02546743317137246</v>
+      </c>
+      <c r="G63">
+        <v>-0.02269253809597889</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>-0.05681099848964555</v>
+        <v>-0.05907729775567138</v>
       </c>
       <c r="C64">
-        <v>-0.05460916685372053</v>
+        <v>0.06777643240788786</v>
       </c>
       <c r="D64">
-        <v>0.0506127060158562</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04732221773489602</v>
+      </c>
+      <c r="E64">
+        <v>0.0427624763669422</v>
+      </c>
+      <c r="F64">
+        <v>0.01912771968496818</v>
+      </c>
+      <c r="G64">
+        <v>-0.07364330596540383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>-0.07218835415744985</v>
+        <v>-0.05992728574387338</v>
       </c>
       <c r="C65">
-        <v>-0.02357528938267462</v>
+        <v>0.02263730677612563</v>
       </c>
       <c r="D65">
-        <v>0.08999369569993147</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1148996505396475</v>
+      </c>
+      <c r="E65">
+        <v>0.03122556687332293</v>
+      </c>
+      <c r="F65">
+        <v>-0.02578041064753906</v>
+      </c>
+      <c r="G65">
+        <v>0.03577775684994583</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>-0.05558263406430982</v>
+        <v>-0.05046799806947761</v>
       </c>
       <c r="C66">
-        <v>-0.06645047017629582</v>
+        <v>0.06991014036567629</v>
       </c>
       <c r="D66">
-        <v>0.08884209513378255</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1094471345691748</v>
+      </c>
+      <c r="E66">
+        <v>0.0541671726038014</v>
+      </c>
+      <c r="F66">
+        <v>0.005392132345237367</v>
+      </c>
+      <c r="G66">
+        <v>-0.02802766820032556</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0562001790242698</v>
+        <v>-0.04519658626048322</v>
       </c>
       <c r="C67">
-        <v>-0.03789702765496405</v>
+        <v>0.02914337330244714</v>
       </c>
       <c r="D67">
-        <v>0.003806660906925123</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.01972694631376811</v>
+      </c>
+      <c r="E67">
+        <v>0.02535595303684707</v>
+      </c>
+      <c r="F67">
+        <v>-0.00760145221652268</v>
+      </c>
+      <c r="G67">
+        <v>0.006689083874889111</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>-0.1470343778325464</v>
+        <v>-0.1647002768758915</v>
       </c>
       <c r="C68">
-        <v>0.278642283627802</v>
+        <v>-0.2365643274487294</v>
       </c>
       <c r="D68">
-        <v>-0.0642535896187649</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.01969541614807474</v>
+      </c>
+      <c r="E68">
+        <v>0.06067294438006846</v>
+      </c>
+      <c r="F68">
+        <v>-0.02833831116739757</v>
+      </c>
+      <c r="G68">
+        <v>0.0105854045271651</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.09396788412825186</v>
+        <v>-0.08797902323540764</v>
       </c>
       <c r="C69">
-        <v>-0.0952300572653533</v>
+        <v>0.1009249921559064</v>
       </c>
       <c r="D69">
-        <v>0.001881192345857829</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.0268526890657922</v>
+      </c>
+      <c r="E69">
+        <v>0.05641269318650706</v>
+      </c>
+      <c r="F69">
+        <v>-0.00805524219141081</v>
+      </c>
+      <c r="G69">
+        <v>-0.05614910358699626</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2301,594 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>-0.1339999608878989</v>
+        <v>-0.1578591979184354</v>
       </c>
       <c r="C71">
-        <v>0.2461559520361928</v>
+        <v>-0.2320313680038842</v>
       </c>
       <c r="D71">
-        <v>-0.003318104243419513</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.01121907119251626</v>
+      </c>
+      <c r="E71">
+        <v>0.07084419076249514</v>
+      </c>
+      <c r="F71">
+        <v>-0.03009736582827028</v>
+      </c>
+      <c r="G71">
+        <v>-0.0506655157919545</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.09580724272300245</v>
+        <v>-0.1016386859771706</v>
       </c>
       <c r="C72">
-        <v>-0.05545111107792311</v>
+        <v>0.05561061247795313</v>
       </c>
       <c r="D72">
-        <v>0.05344648784389309</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.07415025374857256</v>
+      </c>
+      <c r="E72">
+        <v>0.0148305529237006</v>
+      </c>
+      <c r="F72">
+        <v>-0.02638363776428433</v>
+      </c>
+      <c r="G72">
+        <v>-0.05825024150153942</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>-0.3367747702690845</v>
+        <v>-0.2928519244428083</v>
       </c>
       <c r="C73">
-        <v>0.02764716690052314</v>
+        <v>0.02975843286969552</v>
       </c>
       <c r="D73">
-        <v>0.4601178737005939</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.3750515161072404</v>
+      </c>
+      <c r="E73">
+        <v>-0.6210966204042767</v>
+      </c>
+      <c r="F73">
+        <v>-0.09777451216019797</v>
+      </c>
+      <c r="G73">
+        <v>0.06334063799647256</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.1018090817804115</v>
+        <v>-0.1073620025910899</v>
       </c>
       <c r="C74">
-        <v>-0.09522419024938401</v>
+        <v>0.09360495759939412</v>
       </c>
       <c r="D74">
-        <v>-0.01278897113878675</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.02825793087687343</v>
+      </c>
+      <c r="E74">
+        <v>0.071231454357123</v>
+      </c>
+      <c r="F74">
+        <v>-0.05482802158142696</v>
+      </c>
+      <c r="G74">
+        <v>-0.02902850618031706</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>-0.2520822035721159</v>
+        <v>-0.2537539772303929</v>
       </c>
       <c r="C75">
-        <v>-0.1274547680483913</v>
+        <v>0.1446087427957014</v>
       </c>
       <c r="D75">
-        <v>-0.1316383217671105</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.1416881799507312</v>
+      </c>
+      <c r="E75">
+        <v>0.03959649792215756</v>
+      </c>
+      <c r="F75">
+        <v>0.002752623944939738</v>
+      </c>
+      <c r="G75">
+        <v>-0.0256800065964191</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.1121652080477793</v>
+        <v>-0.1268303789407435</v>
       </c>
       <c r="C76">
-        <v>-0.09886210148443804</v>
+        <v>0.1026691883266963</v>
       </c>
       <c r="D76">
-        <v>-0.05016627420050444</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.04660845641541463</v>
+      </c>
+      <c r="E76">
+        <v>0.1033092998742255</v>
+      </c>
+      <c r="F76">
+        <v>-0.01175991235866843</v>
+      </c>
+      <c r="G76">
+        <v>-0.04469989525065577</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>-0.08669465375608171</v>
+        <v>-0.06949563417463293</v>
       </c>
       <c r="C77">
-        <v>-0.02883438962964842</v>
+        <v>0.05655830006540465</v>
       </c>
       <c r="D77">
-        <v>0.08334367640687972</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1080905150441639</v>
+      </c>
+      <c r="E77">
+        <v>0.1134666733561558</v>
+      </c>
+      <c r="F77">
+        <v>0.2548089384022558</v>
+      </c>
+      <c r="G77">
+        <v>0.1616620526170474</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>-0.04432928808639369</v>
+        <v>-0.04586613884132792</v>
       </c>
       <c r="C78">
-        <v>-0.04049711600897186</v>
+        <v>0.05606337553530297</v>
       </c>
       <c r="D78">
-        <v>0.08778611909457307</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1160052646653885</v>
+      </c>
+      <c r="E78">
+        <v>0.05583686108696671</v>
+      </c>
+      <c r="F78">
+        <v>0.0005071512886102811</v>
+      </c>
+      <c r="G78">
+        <v>-0.03704261228740122</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B79">
-        <v>0.002528244022933419</v>
+        <v>-0.03842856198591087</v>
       </c>
       <c r="C79">
-        <v>0.00209130215353546</v>
+        <v>0.06550763928728287</v>
       </c>
       <c r="D79">
-        <v>0.009923564282948783</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.06564167459194291</v>
+      </c>
+      <c r="E79">
+        <v>0.09787948342901154</v>
+      </c>
+      <c r="F79">
+        <v>-0.05892408190034758</v>
+      </c>
+      <c r="G79">
+        <v>-0.2832511211404364</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>-0.03451906882058493</v>
+        <v>-0.02852482258477127</v>
       </c>
       <c r="C80">
-        <v>-0.03781855088449199</v>
+        <v>0.04116702983495575</v>
       </c>
       <c r="D80">
-        <v>0.03246701558373859</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03889003612226279</v>
+      </c>
+      <c r="E80">
+        <v>0.01560265545168522</v>
+      </c>
+      <c r="F80">
+        <v>0.04786974002404862</v>
+      </c>
+      <c r="G80">
+        <v>0.005939533439707947</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>-0.1485717881157454</v>
+        <v>-0.1412053988972557</v>
       </c>
       <c r="C81">
-        <v>-0.1095080736200477</v>
+        <v>0.1119551781594056</v>
       </c>
       <c r="D81">
-        <v>-0.09319450299862017</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.09681298175126597</v>
+      </c>
+      <c r="E81">
+        <v>0.0841691586532476</v>
+      </c>
+      <c r="F81">
+        <v>-0.01067581509995966</v>
+      </c>
+      <c r="G81">
+        <v>-0.0370842139948542</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>-0.2306431683201955</v>
+        <v>-0.2429812822985015</v>
       </c>
       <c r="C82">
-        <v>-0.1672844768302958</v>
+        <v>0.2070420357534313</v>
       </c>
       <c r="D82">
-        <v>-0.1521442818920148</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2193012922298403</v>
+      </c>
+      <c r="E82">
+        <v>-0.08078738512794056</v>
+      </c>
+      <c r="F82">
+        <v>0.03942534805001311</v>
+      </c>
+      <c r="G82">
+        <v>-0.3652969151966985</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>-0.0416983914882196</v>
+        <v>-0.02746782133992604</v>
       </c>
       <c r="C83">
-        <v>-0.04046312689671259</v>
+        <v>0.04831847790978208</v>
       </c>
       <c r="D83">
-        <v>0.07078174875999663</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04972249649036585</v>
+      </c>
+      <c r="E83">
+        <v>0.01888167414356168</v>
+      </c>
+      <c r="F83">
+        <v>0.02170627555636116</v>
+      </c>
+      <c r="G83">
+        <v>0.003419225218931169</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>5.75168499889036e-05</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>0.002642945255269016</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.002488288319004315</v>
+      </c>
+      <c r="E84">
+        <v>0.008864093843353727</v>
+      </c>
+      <c r="F84">
+        <v>-0.00272920465492263</v>
+      </c>
+      <c r="G84">
+        <v>0.005802056670153715</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>-0.1920180975148843</v>
+        <v>-0.1810559605706516</v>
       </c>
       <c r="C85">
-        <v>-0.1096038884818806</v>
+        <v>0.1188803709410703</v>
       </c>
       <c r="D85">
-        <v>-0.1275558391270668</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.1190578341434418</v>
+      </c>
+      <c r="E85">
+        <v>0.02580006055949841</v>
+      </c>
+      <c r="F85">
+        <v>-0.04002592814390032</v>
+      </c>
+      <c r="G85">
+        <v>-0.08268728601954763</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>-0.01160100446571104</v>
+        <v>-0.01611602525808193</v>
       </c>
       <c r="C86">
-        <v>-0.02332351824473654</v>
+        <v>0.01319077584257427</v>
       </c>
       <c r="D86">
-        <v>0.1060559834379151</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.09981540549836715</v>
+      </c>
+      <c r="E86">
+        <v>0.06768814187710617</v>
+      </c>
+      <c r="F86">
+        <v>0.01237943141489366</v>
+      </c>
+      <c r="G86">
+        <v>-0.04602409296732125</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>-0.03596740969070693</v>
+        <v>-0.03528246251237858</v>
       </c>
       <c r="C87">
-        <v>0.008520072794319399</v>
+        <v>0.01336277464108512</v>
       </c>
       <c r="D87">
-        <v>0.1000518710675221</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1280034425172022</v>
+      </c>
+      <c r="E87">
+        <v>0.1111388381833124</v>
+      </c>
+      <c r="F87">
+        <v>0.05171567471115092</v>
+      </c>
+      <c r="G87">
+        <v>0.03305772157043624</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>-0.101246466100727</v>
+        <v>-0.08622508581614323</v>
       </c>
       <c r="C88">
-        <v>-0.08937747636894801</v>
+        <v>0.06948535029155735</v>
       </c>
       <c r="D88">
-        <v>0.01262251675670855</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02173120100480305</v>
+      </c>
+      <c r="E88">
+        <v>0.05595925409683236</v>
+      </c>
+      <c r="F88">
+        <v>-0.01110216204482289</v>
+      </c>
+      <c r="G88">
+        <v>-0.04159880166344225</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>-0.2083316445367399</v>
+        <v>-0.2378280956591359</v>
       </c>
       <c r="C89">
-        <v>0.3560584481030359</v>
+        <v>-0.3663595595217089</v>
       </c>
       <c r="D89">
-        <v>-0.07612214093608852</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.02898364194447974</v>
+      </c>
+      <c r="E89">
+        <v>0.0961144136366633</v>
+      </c>
+      <c r="F89">
+        <v>0.05636676841147139</v>
+      </c>
+      <c r="G89">
+        <v>-0.0370087328817171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>-0.1993021785461953</v>
+        <v>-0.2158216317533096</v>
       </c>
       <c r="C90">
-        <v>0.2982076750653514</v>
+        <v>-0.2854376788197619</v>
       </c>
       <c r="D90">
-        <v>-0.04647541822790526</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.0007612405064428665</v>
+      </c>
+      <c r="E90">
+        <v>0.05877297159566237</v>
+      </c>
+      <c r="F90">
+        <v>-0.01086438034632563</v>
+      </c>
+      <c r="G90">
+        <v>0.01234707955132726</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.1890095610056619</v>
+        <v>-0.1830852092659051</v>
       </c>
       <c r="C91">
-        <v>-0.1682621619887756</v>
+        <v>0.1654505252468739</v>
       </c>
       <c r="D91">
-        <v>-0.08937493120866069</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.1000921727765725</v>
+      </c>
+      <c r="E91">
+        <v>0.06622235031851523</v>
+      </c>
+      <c r="F91">
+        <v>-0.01729960729296045</v>
+      </c>
+      <c r="G91">
+        <v>-0.03357049256429755</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>-0.1813961606938314</v>
+        <v>-0.1956739620348319</v>
       </c>
       <c r="C92">
-        <v>0.2624380157175548</v>
+        <v>-0.28171686946288</v>
       </c>
       <c r="D92">
-        <v>-0.0114736199397002</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.00842146627072893</v>
+      </c>
+      <c r="E92">
+        <v>0.08246412378930594</v>
+      </c>
+      <c r="F92">
+        <v>0.03001317586007319</v>
+      </c>
+      <c r="G92">
+        <v>-0.03598953762424032</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>-0.2213065923029046</v>
+        <v>-0.2349904279859482</v>
       </c>
       <c r="C93">
-        <v>0.3116961513045959</v>
+        <v>-0.3009673608736546</v>
       </c>
       <c r="D93">
-        <v>-0.05453159840821794</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.02298737063105533</v>
+      </c>
+      <c r="E93">
+        <v>0.04561832631457208</v>
+      </c>
+      <c r="F93">
+        <v>-0.02977949104171382</v>
+      </c>
+      <c r="G93">
+        <v>-0.02944248993864986</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>-0.3634906785426936</v>
+        <v>-0.346033140773625</v>
       </c>
       <c r="C94">
-        <v>-0.2223220089051613</v>
+        <v>0.2249729593637672</v>
       </c>
       <c r="D94">
-        <v>-0.5098618879100436</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4428253738848704</v>
+      </c>
+      <c r="E94">
+        <v>0.008011686157153836</v>
+      </c>
+      <c r="F94">
+        <v>0.05893826476603289</v>
+      </c>
+      <c r="G94">
+        <v>0.6025950505919624</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.09265110520651403</v>
+        <v>-0.07025742775834747</v>
       </c>
       <c r="C95">
-        <v>0.02301107340793947</v>
+        <v>0.02895649205806567</v>
       </c>
       <c r="D95">
-        <v>0.1409846189945878</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.1378205190976016</v>
+      </c>
+      <c r="E95">
+        <v>-0.0578264628933543</v>
+      </c>
+      <c r="F95">
+        <v>0.9155212392309533</v>
+      </c>
+      <c r="G95">
+        <v>-0.02489118018304246</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +2899,19 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +2922,42 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>-0.1797600009114723</v>
+        <v>-0.1775812291064279</v>
       </c>
       <c r="C98">
-        <v>-0.002566513648876949</v>
+        <v>0.03808084272624569</v>
       </c>
       <c r="D98">
-        <v>0.2214100302099815</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1956304249721724</v>
+      </c>
+      <c r="E98">
+        <v>-0.2351660463046952</v>
+      </c>
+      <c r="F98">
+        <v>-0.07759482314041298</v>
+      </c>
+      <c r="G98">
+        <v>-0.01330092826765625</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +2968,19 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +2991,65 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>-0.01005295207375687</v>
+        <v>-0.008525708370098828</v>
       </c>
       <c r="C101">
-        <v>-0.02820038016012133</v>
+        <v>0.02464629628741273</v>
       </c>
       <c r="D101">
-        <v>0.02708105805511883</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.05748678936487267</v>
+      </c>
+      <c r="E101">
+        <v>0.0730247819806564</v>
+      </c>
+      <c r="F101">
+        <v>-0.007745423965020819</v>
+      </c>
+      <c r="G101">
+        <v>-0.0468617456891177</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>-0.1217444182713009</v>
+        <v>-0.1210602481290655</v>
       </c>
       <c r="C102">
-        <v>-0.0863070422530115</v>
+        <v>0.1113524895034956</v>
       </c>
       <c r="D102">
-        <v>-0.02971585474542478</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.0461174503192627</v>
+      </c>
+      <c r="E102">
+        <v>-0.0007882317606092943</v>
+      </c>
+      <c r="F102">
+        <v>0.02285461502391315</v>
+      </c>
+      <c r="G102">
+        <v>-0.04834222419793756</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3060,19 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3081,15 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
         <v>0</v>
       </c>
     </row>
